--- a/UI/ejercicios.xlsx
+++ b/UI/ejercicios.xlsx
@@ -1980,37 +1980,6 @@
     <t>MOVIMIENTO SEGMENTARIO DE CUELLO DE A DOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción :_x000D_
-_x000D_
-La persona que va a realizar el movimiento se ubica en la misma posición que la descripta en el MS individual. La persona que acompaña se ubica adelante, (bastante cerca para comunicar protección, sin perturbar el movimiento) y coloca sus manos de un lado y del otro de la base de la cabeza (bajo las orejas, y ligeramente hacia atrás de la cara). Las manos tienen forma de cuna, tiernas, suaves y sin tensión. Los brazos despegados del torso y sin tensión. El contacto no es simbólico, es real aunque liviano. La persona acompaña sin guiar el movimiento del compañero. Conviene estar atento a no dirigir ni limitar el movimiento. Lo importante es invocar la vivencia de protección y benevolencia. Las dos personas tienen los ojos cerrados._x000D_
-_x000D_
-Cuando la música termina, la persona acompañante ofrece un abrazo contenedor con dulzura y profundidad. Luego, sin hablar, las dos personas proceden a cambiar para efectuar la reciprocidad de la situación._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-El objetivo de disolución de las tensiones es el mismo que cuando realizado individualmente. Pero a dos, eso está reforzado por el abandono en confianza con el otro. Allí donde el MS individual estimulaba una forma liviana de trance autoinducido, el MS acompañado favorece un trance liviano inducido por la afectividad. Para que uno se abandone, el otro vigila en calidad de protector._x000D_
-Note CIMEB :_x000D_
-_x000D_
-En algunas ocasiónes excepcionales,en este ejercicio Rolando proponía al acompañante que se ubicara detrás._x000D_
-_x000D_
-_x000C__x000D_
-09-01 Because	The Beatles	2:46_x000D_
-_x000D_
-Los movimientos segmentarios compartidos constituyen uno de los niveles más progresivos de la integración entre la afectividad y la sexualidad diferenciada, a través del contacto y de la intimidad._x000D_
-_x000D_
-_x000D_
-MOVIMIENTO SEGMENTARIO DE HOMBROS DE A DOS_x000D_
-_x000D_
-_x000D_
-Las consideraciones de consigna y de contexto son las mismas que para el ejercicio precedente. Es la calidad de la relación y de la confianza que son aquí evocadas._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-La persona acompañante se sitúa detrás de la que va a realizar el movimiento. Las manos se ponen sobre los hombros, sin pesar, de manera que en posición de cuna, envuelvan tiernamente cada hombro. Siguiendo el impulso de moverse de la persona que realiza la danza, acompañándola, sin dirigirla, sino con la sensibilidad reactiva de su propio movimiento, confiriéndole más amplitud. Los brazos del acompañante son livianos y móviles para no bloquear sino seguir el movimiento, hasta en lo más liviano, en lo más sutil. Al final de la música, la persona puede inclinarse ligeramente hacia atrás apoyando su cabeza sobre el hombro de su “protector”. Este breve instante puede contribuir a reforzar el sentimiento de protección y la manifestación de gratitud. Luego, como en el ejercicio precedente, se ofrece un abrazo._x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t>MOVIMIENTO SEGMENTARIO DE HOMBROS</t>
   </si>
   <si>
@@ -3217,785 +3186,34 @@
     <t>EJERCICIOS SIN MÚSICA</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción :_x000D_
-_x000D_
-El grupo se toma de las manos en una ronda bien cerrada, uniendo sus hombros con los del compañero del lado. Un voluntario sale al centro y elige un compañero para cantar su nombre, colocándose frente a él. En una conexión profunda consigo mismo, con los ojos cerrados, el participante voluntario emite una melodía ajustada al nombre del compañero; cuando la melodía lo exige, se alargarán las vocales para que sea una perfecta integración entre esta última y el nombre de compañero. Una vez concluído el canto los dos compañeros se abrazan y se reintegran a la ronda, de manera que otro voluntario pueda elegir ir al centro para ofrecer el canto del nombre a otro compañero._x000D_
-_x000D_
-Este ejercicio pertenece a la Línea de la Afectividad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Refuerzo de la identidad de la persona que canta a través de la expresión afectiva hacia un compañero. Además se refuerza la identidad de la persona que lo recibe a través de la vivencia de recibir el regalo afectivo del canto de su nombre._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio es una verdadera ceremonia de confirmación afectiva. Puede ser propuesto dentro de una secuencia que tiene como objetivo celebrar a una persona en una ocasión especial (desafio, Minotauro, momento especial de la vida del grupo, etc)._x000D_
-_x000D_
-Este ejercicio puede también hacerse en ronda: una persona va al centro y canta (llama) el nombre de un compañero. El que es asi llamado viene al centro y se acerca al primero, desde donde llama el nombre de otro compañero, ayudado también por el primero. Asi, con iniciativa del ultimo en llegar y ayudado por todos los que estan en el centro, uno a uno el grupo entero es llamado al centro por su nombre. El facilitador permanece fuera para sostener con su presencia a los que seran llamados últimos._x000D_
-_x000D_
-Y también puede hacerse en ronda, donde un voluntario es invitado a ir al centro y cantar el nombre de un compañero. Todo el grupo se une cantando en coro la melodía. Se hace sin música._x000D_
-_x000D_
-_x000D_
-DIÁLOGOS DE VOCES_x000D_
-_x000D_
-_x000D_
-Este Ejercicio pertenece a la Línea de la Afectividad. Se realiza en pareja, preferentemente con ojos cerrados. Revela la capacidad de resonancia con el otro al prescindir de la palabra. Se trata de un diálogo sonoro, un diálogo de voces y no de palabras._x000D_
-_x000D_
-Se caracteriza por la búsqueda de una perfecta conexión sensible, de una resonancia del uno con el otro. El ejercicio induce una comunicación afectiva profunda. As dos personas transmiten recíprocamente estados de ánimo sutiles y emociones a través de la voz._x000D_
-Descripción :_x000D_
-_x000D_
-Uno frente al otro, separados por una distancia mediana, uno a la vez hacen una breve emisión vocal que puede constituir una pequeñísima frase melódica. A tal emisión de voz, el otro tiene que responder con total coherencia, no desde el ego, sino, al contrario, escuchando lo que el otro está diciendo con su voz. Se tiene que originar una respuesta armónica y coherente que se origina desde adentro, que puede ser constituida también por una breve frase melódica._x000D_
-_x000D_
-Simultáneamente, cada uno se mueve en dirección de la voz del otro con pasos lentos. Cuando los dos participantes están muy cerca, el ejercicio se concluye y pueden darse un abrazo._x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN_x000D_
-_x000D_
-_x000D_
-Antes se propone la composición de una poesía a través del ejercicio de la Línea de la Creatividad llamado:_x000D_
-_x000D_
-“La poesía eres tú”._x000D_
-_x000D_
-Una vez que la poesía está escrita, el alumno trata de poner melodía a las palabras, tomando solamente algunos versos que se reiteran y se modulan en relación con la extensión de la melodía (por ejemplo: se alargan algunas vocales para ajustar las palabras a la melodía)._x000D_
-_x000D_
-Se elige un tema y se hacen algunas variaciones sobre el mismo. Dichas variaciones se tienen que referir al tema y a la melodía inicial. Por ende, hay que evitar variaciones que se escapan del tema. Se realiza sin música._x000D_
-_x000D_
-Nota: Este ejercicio es más apropiado para la extensión de Biodanza “Laboratorio de Creatividad”._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte de profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN-DANZA_x000D_
-_x000D_
-_x000D_
-En este ejercicio se integran tres formas de expresión creativas: la poesía, el canto y la danza. El participante primero tiene que escribir una poesía usando el ejercicio de la Línea de la Creatividad llamado “El poema eres tú”._x000D_
-_x000D_
-Después, crea la melodía sobre la base de la poesía que creó (no es necesario usar toda la poesía, sino una frase llena de belleza y significado)._x000D_
-_x000D_
-En seguida, en una tercera fase, el participante danza mientras canta la poesía que escribió. Es necesario intentarlo varias veces hasta llegar a la perfecta integración de los tres componentes. Se realiza sin música._x000D_
-</t>
-  </si>
-  <si>
     <t>CANTO DEL PROPIO NOMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción :_x000D_
-_x000D_
-El participante va al centro de la ronda y, en profunda conexión consigo mismo, comienza a cantar su nombre (lo hace varias veces), con gran emoción y tratando de escuchar la resonancia interior de la palabra que representa su nombre/identidad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Este es un ejercicio de refuerzo de la propia identidad que puede conducir al intasis (estado de conciencia intensificada de sí mismo y de estar vivo)._x000D_
-Observación :_x000D_
-_x000D_
-Nota: este es un ejercicio específico del Proyecto Minotauro. Cuando es realizado fuera de ese contexto, el facilitador deberá reservar este ejercicio para circunstancias muy especiales (por ejemplo un aniversario, un cumpleaños) y crear una atmósfera ritual, para que la vivencia de cantar el propio nombre no se transforme en algo superficial o trivial._x000D_
-Proyección Existencial :_x000D_
-_x000D_
-Cantar el propio nombre es una vivencia de profunda conexión con uno misno: dar al nombre con el que otros nos llaman el eco del llamado que nos ofrecemos a nosotros mismos, y reconocerse en este llamado._x000D_
-Elemento Poético :_x000D_
-_x000D_
-El sonido de cada nombre es único cuando vibra en la voz del que lo lleva._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-CANTO DEL NOMBRE DE UN COMPAÑERO_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El grupo se toma de las manos en una ronda bien cerrada, uniendo sus hombros con los del compañero del lado. Un voluntario sale al centro y elige un compañero para cantar su nombre, colocándose frente a él. En una conexión profunda consigo mismo, con los ojos cerrados, el participante voluntario emite una melodía ajustada al nombre del compañero; cuando la melodía lo exige, se alargarán las vocales para que sea una perfecta integración entre esta última y el nombre de compañero. Una vez concluído el canto los dos compañeros se abrazan y se reintegran a la ronda, de manera que otro voluntario pueda elegir ir al centro para ofrecer el canto del nombre a otro compañero._x000D_
-_x000D_
-Este ejercicio pertenece a la Línea de la Afectividad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Refuerzo de la identidad de la persona que canta a través de la expresión afectiva hacia un compañero. Además se refuerza la identidad de la persona que lo recibe a través de la vivencia de recibir el regalo afectivo del canto de su nombre._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio es una verdadera ceremonia de confirmación afectiva. Puede ser propuesto dentro de una secuencia que tiene como objetivo celebrar a una persona en una ocasión especial (desafio, Minotauro, momento especial de la vida del grupo, etc)._x000D_
-_x000D_
-Este ejercicio puede también hacerse en ronda: una persona va al centro y canta (llama) el nombre de un compañero. El que es asi llamado viene al centro y se acerca al primero, desde donde llama el nombre de otro compañero, ayudado también por el primero. Asi, con iniciativa del ultimo en llegar y ayudado por todos los que estan en el centro, uno a uno el grupo entero es llamado al centro por su nombre. El facilitador permanece fuera para sostener con su presencia a los que seran llamados últimos._x000D_
-_x000D_
-Y también puede hacerse en ronda, donde un voluntario es invitado a ir al centro y cantar el nombre de un compañero. Todo el grupo se une cantando en coro la melodía. Se hace sin música._x000D_
-_x000D_
-_x000D_
-DIÁLOGOS DE VOCES_x000D_
-_x000D_
-_x000D_
-Este Ejercicio pertenece a la Línea de la Afectividad. Se realiza en pareja, preferentemente con ojos cerrados. Revela la capacidad de resonancia con el otro al prescindir de la palabra. Se trata de un diálogo sonoro, un diálogo de voces y no de palabras._x000D_
-_x000D_
-Se caracteriza por la búsqueda de una perfecta conexión sensible, de una resonancia del uno con el otro. El ejercicio induce una comunicación afectiva profunda. As dos personas transmiten recíprocamente estados de ánimo sutiles y emociones a través de la voz._x000D_
-Descripción :_x000D_
-_x000D_
-Uno frente al otro, separados por una distancia mediana, uno a la vez hacen una breve emisión vocal que puede constituir una pequeñísima frase melódica. A tal emisión de voz, el otro tiene que responder con total coherencia, no desde el ego, sino, al contrario, escuchando lo que el otro está diciendo con su voz. Se tiene que originar una respuesta armónica y coherente que se origina desde adentro, que puede ser constituida también por una breve frase melódica._x000D_
-_x000D_
-Simultáneamente, cada uno se mueve en dirección de la voz del otro con pasos lentos. Cuando los dos participantes están muy cerca, el ejercicio se concluye y pueden darse un abrazo._x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN_x000D_
-_x000D_
-_x000D_
-Antes se propone la composición de una poesía a través del ejercicio de la Línea de la Creatividad llamado:_x000D_
-</t>
-  </si>
-  <si>
     <t>CORO DE CAÑA DIVINA</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción :_x000D_
-_x000D_
-El grupo, en ronda, ensaya emitir la voz desde el vientre y no desde la garganta. Luego los participantes se invitan a emitir, suavemente, el sonido de la letra “A”, junto al aire de la expiración. Se crea así una monofonía que, lentamente, deviene a polifonía debido a las variaciones de tonalidad del sonido que cada uno emite. De este modo se genera un coro polifónico._x000D_
-_x000D_
-Los participantes se mantienen con los ojos cerrados, en estado de relajamiento corporal. Hay que solicitar al grupo que se mantenga la armonía del coro, evitando la eventual tendencia a destacarse elevando excesivamente la voz._x000D_
-Objetivo :_x000D_
-_x000D_
-Inducción de estado de trance y de regresión a lo indiferenciado dentro de un contexto místico. Lo indiferenciado se refiere a la disminución de la percepción del propio límite corporal. El contexto místico alude al sentimiento de fusión con el universo._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Eventualmente puede suceder que alguno de los participantes se tienda en el suelo debido a la intensificación del estado de trance. El profesor, por ende, tiene que estar atento para poder ayudar a quien eventualmente lo desee. En este caso se le retira delicadamente de la ronda y se designa a un compañero para que le dé continente._x000D_
-_x000D_
-El coro de caña divina es un ejercicio de línea de la Transcendencia que puede ser utilizado en distintas modalidades. En grupo indiferenciado, como descrito aquí, o en espiral (ver ejercicio con mismo nombre) o con emergente (ver ejercicio de mismo nombre). Las tres variaciones se hacen sin música._x000D_
-_x000D_
-Elemento Poético :_x000D_
-_x000D_
-Este ejercicio es inspirado en ceremonias tibetanas. La metáfora “caña divina” alude a las cañas de bambú, que “cantan” por efecto del viento. No son las cañas las que cantan, sino “Algo” que canta en ellas. Con esto se quiere evidenciar la falta de intencionalidad en la emisión de las voces, en la cual las personas emiten un sonido sintiendo que no son ellos los que cantan, sino es algo que canta dentro de ellos, así como el viento en las cañas. Para los tibetanos “Algo” es la divinidad. En Biodanza es sólo una metáfora de la armonía cósmica._x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio alcanza aún mas su objetivo cuando las personas han adquirido la capacidad de fundirse con el grupo, cuando la necesidad de diferenciarse desaparece._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA EN ESPIRAL_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Otra forma consiste en cantar la letra ”a” a partir de una ronda en la que dos participantes se sueltan de las manos, y una de ellas comienza entonces a girar muy lentamente sobre ella misma, sosteniendo la mano de un compañero, de un solo lado, lo que tiene por efecto inducir un enrollamiento de todo el grupo en espiral. Un grupo compacto se forma y las personas cesan entonces de desplazarse para permanecer “enrollados”. La constitución de una espiral tiende a acentuar el efecto de trance inducido por este ejercicio. Convendrá pues hacer de manera que la persona que estará en el corazón de la espiral esté totalmente apta para abandonarse._x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA CON EMERGENTE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-En una primera forma, los participantes en ronda emiten el sonido de la letra “a”, buscando armonizar el volumen sin que nadie domine con su propia voz sobre la de los demás. El sonido debe ser profundo, visceral y no venir de la garganta. Cuando las personas se han armonizado, una de ellas puede entrar en el círculo, con los ojos cerrados y dejar emerger su canto mientras que las otras mantienen la base constante. Cuando ella ha terminado, permanece algunos instantes en silencio y vuelve a la ronda. Será entonces remplazada por otra persona en el centro. Esta realización demanda una buena preparación afectiva del grupo para que ninguno de los participantes monopolice el centro._x000D_
-_x000D_
-_x000D_
-CANTO DEL PROPIO NOMBRE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El participante va al centro de la ronda y, en profunda conexión consigo mismo, comienza a cantar su nombre (lo hace varias veces), con gran emoción y tratando de escuchar la resonancia interior de la palabra que representa su nombre/identidad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Este es un ejercicio de refuerzo de la propia identidad que puede conducir al intasis (estado de conciencia intensificada de sí mismo y de estar vivo)._x000D_
-Observación :_x000D_
-_x000D_
-Nota: este es un ejercicio específico del Proyecto Minotauro. Cuando es realizado fuera de ese contexto, el facilitador deberá reservar este ejercicio para circunstancias muy especiales (por ejemplo un aniversario, un cumpleaños) y crear una atmósfera ritual, para que la vivencia de cantar el propio nombre no se transforme en algo superficial o trivial._x000D_
-Proyección Existencial :_x000D_
-</t>
-  </si>
-  <si>
     <t>CORO DE CAÑA DIVINA CON EMERGENTE</t>
   </si>
   <si>
-    <t>Descripción :_x000D_
-_x000D_
-En una primera forma, los participantes en ronda emiten el sonido de la letra “a”, buscando armonizar el volumen sin que nadie domine con su propia voz sobre la de los demás. El sonido debe ser profundo, visceral y no venir de la garganta. Cuando las personas se han armonizado, una de ellas puede entrar en el círculo, con los ojos cerrados y dejar emerger su canto mientras que las otras mantienen la base constante. Cuando ella ha terminado, permanece algunos instantes en silencio y vuelve a la ronda. Será entonces remplazada por otra persona en el centro. Esta realización demanda una buena preparación afectiva del grupo para que ninguno de los participantes monopolice el centro._x000D_
-_x000D_
-_x000D_
-CANTO DEL PROPIO NOMBRE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El participante va al centro de la ronda y, en profunda conexión consigo mismo, comienza a cantar su nombre (lo hace varias veces), con gran emoción y tratando de escuchar la resonancia interior de la palabra que representa su nombre/identidad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Este es un ejercicio de refuerzo de la propia identidad que puede conducir al intasis (estado de conciencia intensificada de sí mismo y de estar vivo)._x000D_
-Observación :_x000D_
-_x000D_
-Nota: este es un ejercicio específico del Proyecto Minotauro. Cuando es realizado fuera de ese contexto, el facilitador deberá reservar este ejercicio para circunstancias muy especiales (por ejemplo un aniversario, un cumpleaños) y crear una atmósfera ritual, para que la vivencia de cantar el propio nombre no se transforme en algo superficial o trivial._x000D_
-Proyección Existencial :_x000D_
-_x000D_
-Cantar el propio nombre es una vivencia de profunda conexión con uno misno: dar al nombre con el que otros nos llaman el eco del llamado que nos ofrecemos a nosotros mismos, y reconocerse en este llamado._x000D_
-Elemento Poético :_x000D_
-_x000D_
-El sonido de cada nombre es único cuando vibra en la voz del que lo lleva._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-CANTO DEL NOMBRE DE UN COMPAÑERO_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El grupo se toma de las manos en una ronda bien cerrada, uniendo sus hombros con los del compañero del lado. Un voluntario sale al centro y elige un compañero para cantar su nombre, colocándose frente a él. En una conexión profunda consigo mismo, con los ojos cerrados, el participante voluntario emite una melodía ajustada al nombre del compañero; cuando la melodía lo exige, se alargarán las vocales para que sea una perfecta integración entre esta última y el nombre de compañero. Una vez concluído el canto los dos compañeros se abrazan y se reintegran a la ronda, de manera que otro voluntario pueda elegir ir al centro para ofrecer el canto del nombre a otro compañero._x000D_
-_x000D_
-Este ejercicio pertenece a la Línea de la Afectividad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Refuerzo de la identidad de la persona que canta a través de la expresión afectiva hacia un compañero. Además se refuerza la identidad de la persona que lo recibe a través de la vivencia de recibir el regalo afectivo del canto de su nombre._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio es una verdadera ceremonia de confirmación afectiva. Puede ser propuesto dentro de una secuencia que tiene como objetivo celebrar a una persona en una ocasión especial (desafio, Minotauro, momento especial de la vida del grupo, etc)._x000D_
-_x000D_
-Este ejercicio puede también hacerse en ronda: una persona va al centro y canta (llama) el nombre de un compañero. El que es asi llamado viene al centro y se acerca al primero, desde donde llama el nombre de otro compañero, ayudado también por el primero. Asi, con iniciativa del ultimo en llegar y ayudado por todos los que estan en el centro, uno a uno el grupo entero es llamado al centro por su nombre. El facilitador permanece fuera para sostener con su presencia a los que seran llamados últimos._x000D_
-_x000D_
-Y también puede hacerse en ronda, donde un voluntario es invitado a ir al centro y cantar el nombre de un compañero. Todo el grupo se une cantando en coro la melodía. Se hace sin música._x000D_
-_x000D_
-_x000D_
-DIÁLOGOS DE VOCES_x000D_
-_x000D_
-_x000D_
-Este Ejercicio pertenece a la Línea de la Afectividad. Se realiza en pareja, preferentemente con ojos cerrados. Revela la capacidad de resonancia con el otro al prescindir de la palabra. Se trata de un diálogo sonoro, un diálogo de voces y no de palabras._x000D_
-_x000D_
-Se caracteriza por la búsqueda de una perfecta conexión sensible, de una resonancia del uno con el otro. El ejercicio induce una comunicación afectiva profunda. As dos personas transmiten recíprocamente estados de ánimo sutiles y emociones a través de la voz._x000D_
-Descripción :_x000D_
-_x000D_
-Uno frente al otro, separados por una distancia mediana, uno a la vez hacen una breve emisión vocal que puede constituir una pequeñísima frase melódica. A tal emisión de voz, el otro tiene que responder con total</t>
-  </si>
-  <si>
     <t>CORO DE CAÑA DIVINA EN ESPIRAL</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Otra forma consiste en cantar la letra ”a” a partir de una ronda en la que dos participantes se sueltan de las manos, y una de ellas comienza entonces a girar muy lentamente sobre ella misma, sosteniendo la mano de un compañero, de un solo lado, lo que tiene por efecto inducir un enrollamiento de todo el grupo en espiral. Un grupo compacto se forma y las personas cesan entonces de desplazarse para permanecer “enrollados”. La constitución de una espiral tiende a acentuar el efecto de trance inducido por este ejercicio. Convendrá pues hacer de manera que la persona que estará en el corazón de la espiral esté totalmente apta para abandonarse._x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA CON EMERGENTE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-En una primera forma, los participantes en ronda emiten el sonido de la letra “a”, buscando armonizar el volumen sin que nadie domine con su propia voz sobre la de los demás. El sonido debe ser profundo, visceral y no venir de la garganta. Cuando las personas se han armonizado, una de ellas puede entrar en el círculo, con los ojos cerrados y dejar emerger su canto mientras que las otras mantienen la base constante. Cuando ella ha terminado, permanece algunos instantes en silencio y vuelve a la ronda. Será entonces remplazada por otra persona en el centro. Esta realización demanda una buena preparación afectiva del grupo para que ninguno de los participantes monopolice el centro._x000D_
-_x000D_
-_x000D_
-CANTO DEL PROPIO NOMBRE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El participante va al centro de la ronda y, en profunda conexión consigo mismo, comienza a cantar su nombre (lo hace varias veces), con gran emoción y tratando de escuchar la resonancia interior de la palabra que representa su nombre/identidad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Este es un ejercicio de refuerzo de la propia identidad que puede conducir al intasis (estado de conciencia intensificada de sí mismo y de estar vivo)._x000D_
-Observación :_x000D_
-_x000D_
-Nota: este es un ejercicio específico del Proyecto Minotauro. Cuando es realizado fuera de ese contexto, el facilitador deberá reservar este ejercicio para circunstancias muy especiales (por ejemplo un aniversario, un cumpleaños) y crear una atmósfera ritual, para que la vivencia de cantar el propio nombre no se transforme en algo superficial o trivial._x000D_
-Proyección Existencial :_x000D_
-_x000D_
-Cantar el propio nombre es una vivencia de profunda conexión con uno misno: dar al nombre con el que otros nos llaman el eco del llamado que nos ofrecemos a nosotros mismos, y reconocerse en este llamado._x000D_
-Elemento Poético :_x000D_
-_x000D_
-El sonido de cada nombre es único cuando vibra en la voz del que lo lleva._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-CANTO DEL NOMBRE DE UN COMPAÑERO_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El grupo se toma de las manos en una ronda bien cerrada, uniendo sus hombros con los del compañero del lado. Un voluntario sale al centro y elige un compañero para cantar su nombre, colocándose frente a él. En una conexión profunda consigo mismo, con los ojos cerrados, el participante voluntario emite una melodía ajustada al nombre del compañero; cuando la melodía lo exige, se alargarán las vocales para que sea una perfecta integración entre esta última y el nombre de compañero. Una vez concluído el canto los dos compañeros se abrazan y se reintegran a la ronda, de manera que otro voluntario pueda elegir ir al centro para ofrecer el canto del nombre a otro compañero._x000D_
-_x000D_
-Este ejercicio pertenece a la Línea de la Afectividad._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Refuerzo de la identidad de la persona que canta a través de la expresión afectiva hacia un compañero. Además se refuerza la identidad de la persona que lo recibe a través de la vivencia de recibir el regalo afectivo del canto de su nombre._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio es una verdadera ceremonia de confirmación afectiva. Puede ser propuesto dentro de una secuencia que tiene como objetivo celebrar a una persona en una ocasión especial (desafio, Minotauro, momento especial de la vida del grupo, etc)._x000D_
-_x000D_
-Este ejercicio puede también hacerse en ronda: una persona va al centro y canta (llama) el nombre de un compañero. El que es asi llamado viene al centro y se acerca al primero, desde donde llama el nombre de otro compañero, ayudado también por el primero. Asi, con iniciativa del ultimo en llegar y ayudado por todos los que estan en el centro, uno a uno el grupo entero es llamado al centro por su nombre. El facilitador permanece fuera para sostener con su presencia a los que seran llamados últimos._x000D_
-_x000D_
-Y también puede hacerse en ronda, donde un voluntario es invitado a ir al centro y cantar el nombre de un compañero. Todo el grupo se une cantando en coro la melodía. Se hace sin música._x000D_
-</t>
-  </si>
-  <si>
     <t>COROS RÍTMICOS</t>
   </si>
   <si>
-    <t>_x000D_
-_x000D_
-Los “Coros rítmicos” se realizan utilizando dos mantras diferentes: “Samba-Cananda-Camina-Bum-Ba” Y “Ase-Sita-Hum”. Este ejercicio es de la Línea de la Trascendencia._x000D_
-Descripción :_x000D_
-_x000D_
-Los participantes en círculo, tomados de las manos, cierran los ojos y pronuncian las sílabas de uno de los mantras, acompañándose con el ritmo marcado por los pies en el piso. Mientras los participantes repiten rítmicamente el mantra, el profesor se asegura que ninguno de los participantes se disperse en iniciativas personales, sino que todos canten al mismo tiempo estas palabras._x000D_
-_x000D_
-El ritmo se hace progresivo y tiene que adquirir una gran unidad sonora, una polifonía sonora, conservando hasta el final la misma matriz rítmica._x000D_
-_x000D_
-Sucesivamente, en una segunda etapa, los participantes pueden soltarse de las manos de la ronda y proseguir en forma individual, todos juntos, la danza de este ritmo producido por el grupo. El ritmo se apodera de la percepción de los participantes y, eventualmente, se pueden producir estados de trance rítmico liviano._x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-El grupo, en ronda, ensaya emitir la voz desde el vientre y no desde la garganta. Luego los participantes se invitan a emitir, suavemente, el sonido de la letra “A”, junto al aire de la expiración. Se crea así una monofonía que, lentamente, deviene a polifonía debido a las variaciones de tonalidad del sonido que cada uno emite. De este modo se genera un coro polifónico._x000D_
-_x000D_
-Los participantes se mantienen con los ojos cerrados, en estado de relajamiento corporal. Hay que solicitar al grupo que se mantenga la armonía del coro, evitando la eventual tendencia a destacarse elevando excesivamente la voz._x000D_
-Objetivo :_x000D_
-_x000D_
-Inducción de estado de trance y de regresión a lo indiferenciado dentro de un contexto místico. Lo indiferenciado se refiere a la disminución de la percepción del propio límite corporal. El contexto místico alude al sentimiento de fusión con el universo._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Eventualmente puede suceder que alguno de los participantes se tienda en el suelo debido a la intensificación del estado de trance. El profesor, por ende, tiene que estar atento para poder ayudar a quien eventualmente lo desee. En este caso se le retira delicadamente de la ronda y se designa a un compañero para que le dé continente._x000D_
-_x000D_
-El coro de caña divina es un ejercicio de línea de la Transcendencia que puede ser utilizado en distintas modalidades. En grupo indiferenciado, como descrito aquí, o en espiral (ver ejercicio con mismo nombre) o con emergente (ver ejercicio de mismo nombre). Las tres variaciones se hacen sin música._x000D_
-_x000D_
-Elemento Poético :_x000D_
-_x000D_
-Este ejercicio es inspirado en ceremonias tibetanas. La metáfora “caña divina” alude a las cañas de bambú, que “cantan” por efecto del viento. No son las cañas las que cantan, sino “Algo” que canta en ellas. Con esto se quiere evidenciar la falta de intencionalidad en la emisión de las voces, en la cual las personas emiten un sonido sintiendo que no son ellos los que cantan, sino es algo que canta dentro de ellos, así como el viento en las cañas. Para los tibetanos “Algo” es la divinidad. En Biodanza es sólo una metáfora de la armonía cósmica._x000D_
-_x000D_
-Note CIMEB :_x000D_
-_x000D_
-Este ejercicio alcanza aún mas su objetivo cuando las personas han adquirido la capacidad de fundirse con el grupo, cuando la necesidad de diferenciarse desaparece._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA EN ESPIRAL_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Otra forma consiste en cantar la letra ”a” a partir de una ronda en la que dos participantes se sueltan de las manos, y una de ellas comienza entonces a girar muy lentamente sobre ella misma, sosteniendo la mano de un compañero, de un solo lado, lo que tiene por efecto inducir un enrollamiento de todo el grupo en espiral. Un grupo compacto se forma y las personas cesan entonces de desplazarse para permanecer “enrollados”. La constitución de una espiral tiende a acentuar el efecto de trance inducido por este ejercicio. Convendrá pues hacer de manera que la persona que estará en el corazón de la espiral esté totalmente apta para abandonarse._x000D_
-_x000D_
-_x000D_
-CORO DE CAÑA DIVINA CON EMERGENTE_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-En una primera forma, los participantes en ronda emiten el sonido de la letra “a”, buscando armonizar el volumen sin que nadie domine con su propia voz sobre la de los demás. El sonido debe ser profundo, visceral y no venir de la garganta. Cuando las personas se han armonizado, una de ellas puede entrar en el círculo, con los ojos cerrados y dejar emerger su canto mientras que las otras mantienen la base</t>
-  </si>
-  <si>
     <t>DANZA INTERIOR (sin música)</t>
   </si>
   <si>
-    <t>La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
-_x000D_
-Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
-_x000D_
-En "Biodanza y Voz", del flujo respiratorio propio a cada uno (del ritmo o frecuencia respiratoria), del propio aliento vital, en la escucha silenciosa y sensible, uno puede experimentar la vivencia intensa y trascendente del "aliento de vida" en todos sus matices y posibilidades sonoras._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-La "Danza interior" requiere un buen nivel de integración sensitivomotora e integración de la fluidez. Su objetivo principal es profundizar la auto-percepción, el movimiento de la intimidad con uno mismo y la conexión con los diferentes elementos sensoriales y sensibles de nuestra percepción._x000D_
-_x000D_
-_x000D_
-DIBUJO SENSIBLE_x000D_
-_x000D_
-_x000D_
-El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
-_x000D_
-Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
-_x000D_
-de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin vida,sin alma, una especie de esquema simple y obvio. La complejidad de la imagen, la que que se refiere a la morfogénesis, está ausente._x000D_
-No hay ninguna conexión entre el grupo de signos y el significado intrínseco de la forma. Se trata de una disociación entre los aspectos semióticos y los aspectos semánticos. Carece de emoción. Carece de vida._x000D_
-_x000D_
-Si tomamos como punto de partida para la morfogénesis nuestra"percepción del objeto", abordándolo con sensibilidad en el trato con sus alusiones inmediatas, asi se trate de sombras o de formas unidas en el espacio, logramos descubrir el sentido de la imagen._x000D_
-_x000D_
-El artista, al igual que el explorador, se mueve un territorio a otro uniendo en la misma línea, del mismo trazo, las estructuras que emergen delante de sus ojos, revelando la forma en toda su complejidad._x000D_
-_x000D_
-Cuando se dibuja un esquema que tenemos en la memoria, el diseño es rígido. Si dibujamos sin mantener nuestra mirada fija en el papel sino tratando de capturar algo del sujeto, sus formas vivas, vibrantes y expresivas, nos revelan la esencia._x000D_
-_x000D_
-La técnica apropiada para hacer esto es la percepción sensible del objeto, es decir, una percepcion no formal. La mirada ligeramente desenfocada, la mirada que recorre lentamente los contornos, ya sea de un florero, un rostro, una planta, etc._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-La propuesta se realiza en dos etapas. El ejercicio se lleva a cabo en pares. Las personas se sientan frente a frente y uno tras otro dibujan como es su costumbre, sin instrucción específica del facilitador, el retrato de su compañero. A continuación, dejando a un lado sus diseños, se compenetran sensiblemente de la cara del otro (esta parte puede ser precedida por la Caricia del rostro en pares). En una hoja nueva, realizan el "retrato sensible" del compañero, tratando de no mirar el papel sino dejando que el trazo exprese lo esencial de su percepción._x000D_
-_x000D_
-Las personas entonces se ofrecen un momento de contemplación de sus respectivas obras. A continuación, todos los dibujos son llevados al centro, cada uno colocando su dibujo formal cerca de su diseño sensible, y el grupo forma una ronda que se mueve alrededor para sensibilizarse a través de la contemplación._x000D_
-Objetivo :_x000D_
-_x000D_
-Desbloquear el dibujo de los límites de la percepción formal para permitir una percepción sensible y esencial de los seres y las cosas. En la creatividad la percepción sensible es subjetiva y por lo tanto, es original y única._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Este mismo ejercicio puede realizarse dibujando un objeto._x000D_
-_x000D_
-_x000D_
-DANZAS ESPECÍFICAS (por orden alfabético)_x000D_
-_x000D_
-_x000D_
-Bajo este capítulo se agrupan danzas que estan en relación con las extensiones o con situaciones muy específicas. A veces son variaciones del Catálogo de base de danzas de IBF (Rolando Toro Araneda) y, a veces, están relacionadas con la radicalización vivencial._x000D_
-_x000D_
-Las extensiones o situaciones de radicalización son, por ejemplo:_x000D_
-_x000D_
-Los Cuatro Elementos, el Proyecto Minotauro, Biodanza Acuática, Biodanza en la Naturaleza, Los caminos de éxtasis, El árbol de los deseos, Feminidad y Masculinidad profundas, etc._x000D_
-Algunas de estas danzas se inspiran en aplicaciones específicas, tales como la Biodanza para Niños y Adolescentes._x000D_
-_x000D_
-_x000D_
-ABDOMINALES (llamada “Danza del astronauta” cuando es propuesta a niños)_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Este ejercicio consiste en tenderse en el suelo apoyado sólo en la parte baja de la espalda mientras se</t>
-  </si>
-  <si>
     <t>DIÁLOGOS DE VOCES</t>
   </si>
   <si>
-    <t xml:space="preserve">Este Ejercicio pertenece a la Línea de la Afectividad. Se realiza en pareja, preferentemente con ojos cerrados. Revela la capacidad de resonancia con el otro al prescindir de la palabra. Se trata de un diálogo sonoro, un diálogo de voces y no de palabras._x000D_
-_x000D_
-Se caracteriza por la búsqueda de una perfecta conexión sensible, de una resonancia del uno con el otro. El ejercicio induce una comunicación afectiva profunda. As dos personas transmiten recíprocamente estados de ánimo sutiles y emociones a través de la voz._x000D_
-Descripción :_x000D_
-_x000D_
-Uno frente al otro, separados por una distancia mediana, uno a la vez hacen una breve emisión vocal que puede constituir una pequeñísima frase melódica. A tal emisión de voz, el otro tiene que responder con total coherencia, no desde el ego, sino, al contrario, escuchando lo que el otro está diciendo con su voz. Se tiene que originar una respuesta armónica y coherente que se origina desde adentro, que puede ser constituida también por una breve frase melódica._x000D_
-_x000D_
-Simultáneamente, cada uno se mueve en dirección de la voz del otro con pasos lentos. Cuando los dos participantes están muy cerca, el ejercicio se concluye y pueden darse un abrazo._x000D_
-_x000D_
-Se realiza sin música._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN_x000D_
-_x000D_
-_x000D_
-Antes se propone la composición de una poesía a través del ejercicio de la Línea de la Creatividad llamado:_x000D_
-_x000D_
-“La poesía eres tú”._x000D_
-_x000D_
-Una vez que la poesía está escrita, el alumno trata de poner melodía a las palabras, tomando solamente algunos versos que se reiteran y se modulan en relación con la extensión de la melodía (por ejemplo: se alargan algunas vocales para ajustar las palabras a la melodía)._x000D_
-_x000D_
-Se elige un tema y se hacen algunas variaciones sobre el mismo. Dichas variaciones se tienen que referir al tema y a la melodía inicial. Por ende, hay que evitar variaciones que se escapan del tema. Se realiza sin música._x000D_
-_x000D_
-Nota: Este ejercicio es más apropiado para la extensión de Biodanza “Laboratorio de Creatividad”._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte de profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN-DANZA_x000D_
-_x000D_
-_x000D_
-En este ejercicio se integran tres formas de expresión creativas: la poesía, el canto y la danza. El participante primero tiene que escribir una poesía usando el ejercicio de la Línea de la Creatividad llamado “El poema eres tú”._x000D_
-_x000D_
-Después, crea la melodía sobre la base de la poesía que creó (no es necesario usar toda la poesía, sino una frase llena de belleza y significado)._x000D_
-_x000D_
-En seguida, en una tercera fase, el participante danza mientras canta la poesía que escribió. Es necesario intentarlo varias veces hasta llegar a la perfecta integración de los tres componentes. Se realiza sin música._x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000C__x000D_
-EL POEMA ERES TÚ_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Dos personas se eligen mutuamente por afinidad. Se sientan uno frente al otro y entran cada uno en la contemplación del otro. Se abren el misterio del otro, sensibilizándose a la esencia, al estado de ánimo, a las emociones que expresa su rostro, a todo lo que emerge como esencial. Entonces, mientras se mantiene la proximidad, cada uno expresa en el lenguaje poético su vivencia a ver al otro. Tú eres el poema: tú eres el centro de mi percepción. Tú eres la razón de mi poema._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Desarrollar el lenguaje afectivo y poético y la capacidad de exaltar la presencia del otro._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza preferentemente sin música para no influenciar la inspiración de las personas con el contenido semántico emocional de ésta. Sin embargo, es preparado por una música y es también concluído con la misma música, la cual indica el marco inicial de conexión e intimidad y el marco final del tiempo del ritual._x000D_
-_x000D_
-_x000D_
-DANZA INTERIOR (sin música)_x000D_
-_x000D_
-_x000D_
-La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
-_x000D_
-Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
-</t>
-  </si>
-  <si>
     <t>DIBUJO SENSIBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
-_x000D_
-Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
-_x000D_
-de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin vida,sin alma, una especie de esquema simple y obvio. La complejidad de la imagen, la que que se refiere a la morfogénesis, está ausente._x000D_
-No hay ninguna conexión entre el grupo de signos y el significado intrínseco de la forma. Se trata de una disociación entre los aspectos semióticos y los aspectos semánticos. Carece de emoción. Carece de vida._x000D_
-_x000D_
-Si tomamos como punto de partida para la morfogénesis nuestra"percepción del objeto", abordándolo con sensibilidad en el trato con sus alusiones inmediatas, asi se trate de sombras o de formas unidas en el espacio, logramos descubrir el sentido de la imagen._x000D_
-_x000D_
-El artista, al igual que el explorador, se mueve un territorio a otro uniendo en la misma línea, del mismo trazo, las estructuras que emergen delante de sus ojos, revelando la forma en toda su complejidad._x000D_
-_x000D_
-Cuando se dibuja un esquema que tenemos en la memoria, el diseño es rígido. Si dibujamos sin mantener nuestra mirada fija en el papel sino tratando de capturar algo del sujeto, sus formas vivas, vibrantes y expresivas, nos revelan la esencia._x000D_
-_x000D_
-La técnica apropiada para hacer esto es la percepción sensible del objeto, es decir, una percepcion no formal. La mirada ligeramente desenfocada, la mirada que recorre lentamente los contornos, ya sea de un florero, un rostro, una planta, etc._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-La propuesta se realiza en dos etapas. El ejercicio se lleva a cabo en pares. Las personas se sientan frente a frente y uno tras otro dibujan como es su costumbre, sin instrucción específica del facilitador, el retrato de su compañero. A continuación, dejando a un lado sus diseños, se compenetran sensiblemente de la cara del otro (esta parte puede ser precedida por la Caricia del rostro en pares). En una hoja nueva, realizan el "retrato sensible" del compañero, tratando de no mirar el papel sino dejando que el trazo exprese lo esencial de su percepción._x000D_
-_x000D_
-Las personas entonces se ofrecen un momento de contemplación de sus respectivas obras. A continuación, todos los dibujos son llevados al centro, cada uno colocando su dibujo formal cerca de su diseño sensible, y el grupo forma una ronda que se mueve alrededor para sensibilizarse a través de la contemplación._x000D_
-Objetivo :_x000D_
-_x000D_
-Desbloquear el dibujo de los límites de la percepción formal para permitir una percepción sensible y esencial de los seres y las cosas. En la creatividad la percepción sensible es subjetiva y por lo tanto, es original y única._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Este mismo ejercicio puede realizarse dibujando un objeto._x000D_
-_x000D_
-_x000D_
-DANZAS ESPECÍFICAS (por orden alfabético)_x000D_
-_x000D_
-_x000D_
-Bajo este capítulo se agrupan danzas que estan en relación con las extensiones o con situaciones muy específicas. A veces son variaciones del Catálogo de base de danzas de IBF (Rolando Toro Araneda) y, a veces, están relacionadas con la radicalización vivencial._x000D_
-_x000D_
-Las extensiones o situaciones de radicalización son, por ejemplo:_x000D_
-_x000D_
-Los Cuatro Elementos, el Proyecto Minotauro, Biodanza Acuática, Biodanza en la Naturaleza, Los caminos de éxtasis, El árbol de los deseos, Feminidad y Masculinidad profundas, etc._x000D_
-Algunas de estas danzas se inspiran en aplicaciones específicas, tales como la Biodanza para Niños y Adolescentes._x000D_
-_x000D_
-_x000D_
-ABDOMINALES (llamada “Danza del astronauta” cuando es propuesta a niños)_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Este ejercicio consiste en tenderse en el suelo apoyado sólo en la parte baja de la espalda mientras se mantiene el tronco, la cabeza y las extremidades elevadas. En esta posición, se balancea ligeramente el cuerpo, subiendo y bajando el tronco (sin tocar el suelo) y moviendo ligeramente las piernas y los brazos como si estuviera en condiciones de gravedad cero, con el fin de parecerse a un astronauta que fluye o flota en el espacio._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se trata de un ejercicio específico de la metodología de Biodanza para niños. Evoca la sensación de flotar en el espacio sin fuerza de gravedad y por lo tanto, en la consigna, se sugiere al niño la imagen del astronauta._x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t>EL POEMA ERES TÚ</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Dos personas se eligen mutuamente por afinidad. Se sientan uno frente al otro y entran cada uno en la contemplación del otro. Se abren el misterio del otro, sensibilizándose a la esencia, al estado de ánimo, a las emociones que expresa su rostro, a todo lo que emerge como esencial. Entonces, mientras se mantiene la proximidad, cada uno expresa en el lenguaje poético su vivencia a ver al otro. Tú eres el poema: tú eres el centro de mi percepción. Tú eres la razón de mi poema._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Desarrollar el lenguaje afectivo y poético y la capacidad de exaltar la presencia del otro._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza preferentemente sin música para no influenciar la inspiración de las personas con el contenido semántico emocional de ésta. Sin embargo, es preparado por una música y es también concluído con la misma música, la cual indica el marco inicial de conexión e intimidad y el marco final del tiempo del ritual._x000D_
-_x000D_
-_x000D_
-DANZA INTERIOR (sin música)_x000D_
-_x000D_
-_x000D_
-La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
-_x000D_
-Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
-_x000D_
-En "Biodanza y Voz", del flujo respiratorio propio a cada uno (del ritmo o frecuencia respiratoria), del propio aliento vital, en la escucha silenciosa y sensible, uno puede experimentar la vivencia intensa y trascendente del "aliento de vida" en todos sus matices y posibilidades sonoras._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-La "Danza interior" requiere un buen nivel de integración sensitivomotora e integración de la fluidez. Su objetivo principal es profundizar la auto-percepción, el movimiento de la intimidad con uno mismo y la conexión con los diferentes elementos sensoriales y sensibles de nuestra percepción._x000D_
-_x000D_
-_x000D_
-DIBUJO SENSIBLE_x000D_
-_x000D_
-_x000D_
-El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
-_x000D_
-Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
-_x000D_
-de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin vida,sin alma, una especie de esquema simple y obvio. La complejidad de la imagen, la que que se refiere a la morfogénesis, está ausente._x000D_
-No hay ninguna conexión entre el grupo de signos y el significado intrínseco de la forma. Se trata de una disociación entre los aspectos semióticos y los aspectos semánticos. Carece de emoción. Carece de vida._x000D_
-_x000D_
-Si tomamos como punto de partida para la morfogénesis nuestra"percepción del objeto", abordándolo con sensibilidad en el trato con sus alusiones inmediatas, asi se trate de sombras o de formas unidas en el espacio, logramos descubrir el sentido de la imagen._x000D_
-_x000D_
-El artista, al igual que el explorador, se mueve un territorio a otro uniendo en la misma línea, del mismo trazo, las estructuras que emergen delante de sus ojos, revelando la forma en toda su complejidad._x000D_
-_x000D_
-Cuando se dibuja un esquema que tenemos en la memoria, el diseño es rígido. Si dibujamos sin mantener nuestra mirada fija en el papel sino tratando de capturar algo del sujeto, sus formas vivas, vibrantes y expresivas, nos revelan la esencia._x000D_
-_x000D_
-La técnica apropiada para hacer esto es la percepción sensible del objeto, es decir, una percepcion no formal. La mirada ligeramente desenfocada, la mirada que recorre lentamente los contornos, ya sea de un florero, un rostro, una planta, etc._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-La propuesta se realiza en dos etapas. El ejercicio se lleva a cabo en pares. Las personas se sientan frente a frente y uno tras otro dibujan como es su costumbre, sin instrucción específica del facilitador, el retrato de su compañero. A continuación, dejando a un lado sus diseños, se compenetran sensiblemente de la cara del otro (esta parte puede ser precedida por la Caricia del rostro en pares). En una hoja nueva, realizan el "retrato sensible" del compañero, tratando de no mirar el papel sino dejando que el trazo exprese lo esencial de su percepción._x000D_
-_x000D_
-Las personas entonces se ofrecen un momento de contemplación de sus respectivas obras. A continuación, todos los dibujos son llevados al centro, cada uno colocando su dibujo formal cerca de su diseño sensible, y el grupo forma una ronda que se mueve alrededor para sensibilizarse a través de la contemplación._x000D_
-Objetivo :_x000D_
-_x000D_
-Desbloquear el dibujo de los límites de la percepción formal para permitir una percepción sensible y esencial de los seres y las cosas. En la creatividad la percepción sensible es subjetiva y por lo tanto, es original y única._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t>POESÍA-CANCIÓN-DANZA</t>
-  </si>
-  <si>
-    <t>En este ejercicio se integran tres formas de expresión creativas: la poesía, el canto y la danza. El participante primero tiene que escribir una poesía usando el ejercicio de la Línea de la Creatividad llamado “El poema eres tú”._x000D_
-_x000D_
-Después, crea la melodía sobre la base de la poesía que creó (no es necesario usar toda la poesía, sino una frase llena de belleza y significado)._x000D_
-_x000D_
-En seguida, en una tercera fase, el participante danza mientras canta la poesía que escribió. Es necesario intentarlo varias veces hasta llegar a la perfecta integración de los tres componentes. Se realiza sin música._x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000C__x000D_
-EL POEMA ERES TÚ_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Dos personas se eligen mutuamente por afinidad. Se sientan uno frente al otro y entran cada uno en la contemplación del otro. Se abren el misterio del otro, sensibilizándose a la esencia, al estado de ánimo, a las emociones que expresa su rostro, a todo lo que emerge como esencial. Entonces, mientras se mantiene la proximidad, cada uno expresa en el lenguaje poético su vivencia a ver al otro. Tú eres el poema: tú eres el centro de mi percepción. Tú eres la razón de mi poema._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Desarrollar el lenguaje afectivo y poético y la capacidad de exaltar la presencia del otro._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza preferentemente sin música para no influenciar la inspiración de las personas con el contenido semántico emocional de ésta. Sin embargo, es preparado por una música y es también concluído con la misma música, la cual indica el marco inicial de conexión e intimidad y el marco final del tiempo del ritual._x000D_
-_x000D_
-_x000D_
-DANZA INTERIOR (sin música)_x000D_
-_x000D_
-_x000D_
-La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
-_x000D_
-Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
-_x000D_
-En "Biodanza y Voz", del flujo respiratorio propio a cada uno (del ritmo o frecuencia respiratoria), del propio aliento vital, en la escucha silenciosa y sensible, uno puede experimentar la vivencia intensa y trascendente del "aliento de vida" en todos sus matices y posibilidades sonoras._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-La "Danza interior" requiere un buen nivel de integración sensitivomotora e integración de la fluidez. Su objetivo principal es profundizar la auto-percepción, el movimiento de la intimidad con uno mismo y la conexión con los diferentes elementos sensoriales y sensibles de nuestra percepción._x000D_
-_x000D_
-_x000D_
-DIBUJO SENSIBLE_x000D_
-_x000D_
-_x000D_
-El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
-_x000D_
-Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
-_x000D_
-de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin vida,sin alma, una especie de esquema simple y obvio. La complejidad de la imagen, la que que se refiere a la morfogénesis, está ausente._x000D_
-No hay ninguna conexión entre el grupo de signos y el significado intrínseco de la forma. Se trata de una disociación entre los aspectos semióticos y los aspectos semánticos. Carece de emoción. Carece de vida._x000D_
-_x000D_
-Si tomamos como punto de partida para la morfogénesis nuestra"percepción del objeto", abordándolo con sensibilidad en el trato con sus alusiones inmediatas, asi se trate de sombras o de formas unidas en el espacio, logramos descubrir el sentido de la imagen._x000D_
-_x000D_
-El artista, al igual que el explorador, se mueve un territorio a otro uniendo en la misma línea, del mismo trazo, las estructuras que emergen delante de sus ojos, revelando la forma en toda su complejidad._x000D_
-_x000D_
-Cuando se dibuja un esquema que tenemos en la memoria, el diseño es rígido. Si dibujamos sin mantener nuestra mirada fija en el papel sino tratando de capturar algo del sujeto, sus formas vivas, vibrantes y expresivas, nos revelan la esencia._x000D_
-_x000D_
-La técnica apropiada para hacer esto es la percepción sensible del objeto, es decir, una percepcion no formal. La mirada ligeramente desenfocada, la mirada que recorre lentamente los contornos, ya sea de un florero, un rostro, una planta, etc._x000D_
-_x000D_
-_x000C__x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-La propuesta se realiza en dos etapas. El ejercicio se lleva a cabo en pares. Las personas se sientan frente</t>
   </si>
   <si>
     <t>ABDOMINALES (llamada “Danza del astronauta” cuando es propuesta a niños)</t>
@@ -5748,80 +4966,6 @@
     <t>POESÍA-CANCIÓN</t>
   </si>
   <si>
-    <t>_x000D_
-_x000D_
-Antes se propone la composición de una poesía a través del ejercicio de la Línea de la Creatividad llamado:_x000D_
-_x000D_
-“La poesía eres tú”._x000D_
-_x000D_
-Una vez que la poesía está escrita, el alumno trata de poner melodía a las palabras, tomando solamente algunos versos que se reiteran y se modulan en relación con la extensión de la melodía (por ejemplo: se alargan algunas vocales para ajustar las palabras a la melodía)._x000D_
-_x000D_
-Se elige un tema y se hacen algunas variaciones sobre el mismo. Dichas variaciones se tienen que referir al tema y a la melodía inicial. Por ende, hay que evitar variaciones que se escapan del tema. Se realiza sin música._x000D_
-_x000D_
-Nota: Este ejercicio es más apropiado para la extensión de Biodanza “Laboratorio de Creatividad”._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte de profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000D_
-POESÍA-CANCIÓN-DANZA_x000D_
-_x000D_
-_x000D_
-En este ejercicio se integran tres formas de expresión creativas: la poesía, el canto y la danza. El participante primero tiene que escribir una poesía usando el ejercicio de la Línea de la Creatividad llamado “El poema eres tú”._x000D_
-_x000D_
-Después, crea la melodía sobre la base de la poesía que creó (no es necesario usar toda la poesía, sino una frase llena de belleza y significado)._x000D_
-_x000D_
-En seguida, en una tercera fase, el participante danza mientras canta la poesía que escribió. Es necesario intentarlo varias veces hasta llegar a la perfecta integración de los tres componentes. Se realiza sin música._x000D_
-Observación :_x000D_
-_x000D_
-Este ejercicio es sobre todo parte profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
-_x000D_
-_x000C__x000D_
-EL POEMA ERES TÚ_x000D_
-_x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Dos personas se eligen mutuamente por afinidad. Se sientan uno frente al otro y entran cada uno en la contemplación del otro. Se abren el misterio del otro, sensibilizándose a la esencia, al estado de ánimo, a las emociones que expresa su rostro, a todo lo que emerge como esencial. Entonces, mientras se mantiene la proximidad, cada uno expresa en el lenguaje poético su vivencia a ver al otro. Tú eres el poema: tú eres el centro de mi percepción. Tú eres la razón de mi poema._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-Desarrollar el lenguaje afectivo y poético y la capacidad de exaltar la presencia del otro._x000D_
-_x000D_
-Observación :_x000D_
-_x000D_
-Se realiza preferentemente sin música para no influenciar la inspiración de las personas con el contenido semántico emocional de ésta. Sin embargo, es preparado por una música y es también concluído con la misma música, la cual indica el marco inicial de conexión e intimidad y el marco final del tiempo del ritual._x000D_
-_x000D_
-_x000D_
-DANZA INTERIOR (sin música)_x000D_
-_x000D_
-_x000D_
-La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
-_x000D_
-Descripción :_x000D_
-_x000D_
-Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
-_x000D_
-Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
-_x000D_
-En "Biodanza y Voz", del flujo respiratorio propio a cada uno (del ritmo o frecuencia respiratoria), del propio aliento vital, en la escucha silenciosa y sensible, uno puede experimentar la vivencia intensa y trascendente del "aliento de vida" en todos sus matices y posibilidades sonoras._x000D_
-_x000D_
-Objetivo :_x000D_
-_x000D_
-La "Danza interior" requiere un buen nivel de integración sensitivomotora e integración de la fluidez. Su objetivo principal es profundizar la auto-percepción, el movimiento de la intimidad con uno mismo y la conexión con los diferentes elementos sensoriales y sensibles de nuestra percepción._x000D_
-_x000D_
-_x000D_
-DIBUJO SENSIBLE_x000D_
-_x000D_
-_x000D_
-El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
-_x000D_
-Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
-_x000D_
-de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin</t>
-  </si>
-  <si>
     <t>SINCRONIZACIÓN RÍTMICA SUAVE</t>
   </si>
   <si>
@@ -5879,14 +5023,224 @@
 </t>
   </si>
   <si>
-    <t>RONDA DE INICIO/INTEGRACIÓN</t>
+    <t xml:space="preserve">Descripción :
+El grupo, en ronda, ensaya emitir la voz desde el vientre y no desde la garganta. Luego los participantes se invitan a emitir, suavemente, el sonido de la letra “A”, junto al aire de la expiración. Se crea así una monofonía que, lentamente, deviene a polifonía debido a las variaciones de tonalidad del sonido que cada uno emite. De este modo se genera un coro polifónico.
+Los participantes se mantienen con los ojos cerrados, en estado de relajamiento corporal. Hay que solicitar al grupo que se mantenga la armonía del coro, evitando la eventual tendencia a destacarse elevando excesivamente la voz.
+Objetivo :
+Inducción de estado de trance y de regresión a lo indiferenciado dentro de un contexto místico. Lo indiferenciado se refiere a la disminución de la percepción del propio límite corporal. El contexto místico alude al sentimiento de fusión con el universo.
+Observación :
+Eventualmente puede suceder que alguno de los participantes se tienda en el suelo debido a la intensificación del estado de trance. El profesor, por ende, tiene que estar atento para poder ayudar a quien eventualmente lo desee. En este caso se le retira delicadamente de la ronda y se designa a un compañero para que le dé continente.
+El coro de caña divina es un ejercicio de línea de la Transcendencia que puede ser utilizado en distintas modalidades. En grupo indiferenciado, como descrito aquí, o en espiral (ver ejercicio con mismo nombre) o con emergente (ver ejercicio de mismo nombre). Las tres variaciones se hacen sin música.
+Elemento Poético :
+Este ejercicio es inspirado en ceremonias tibetanas. La metáfora “caña divina” alude a las cañas de bambú, que “cantan” por efecto del viento. No son las cañas las que cantan, sino “Algo” que canta en ellas. Con esto se quiere evidenciar la falta de intencionalidad en la emisión de las voces, en la cual las personas emiten un sonido sintiendo que no son ellos los que cantan, sino es algo que canta dentro de ellos, así como el viento en las cañas. Para los tibetanos “Algo” es la divinidad. En Biodanza es sólo una metáfora de la armonía cósmica.
+Note CIMEB :
+Este ejercicio alcanza aún mas su objetivo cuando las personas han adquirido la capacidad de fundirse con el grupo, cuando la necesidad de diferenciarse desaparece.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción :
+En una primera forma, los participantes en ronda emiten el sonido de la letra “a”, buscando armonizar el volumen sin que nadie domine con su propia voz sobre la de los demás. El sonido debe ser profundo, visceral y no venir de la garganta. Cuando las personas se han armonizado, una de ellas puede entrar en el círculo, con los ojos cerrados y dejar emerger su canto mientras que las otras mantienen la base constante. Cuando ella ha terminado, permanece algunos instantes en silencio y vuelve a la ronda. Será entonces remplazada por otra persona en el centro. Esta realización demanda una buena preparación afectiva del grupo para que ninguno de los participantes monopolice el centro.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción :
+Otra forma consiste en cantar la letra ”a” a partir de una ronda en la que dos participantes se sueltan de las manos, y una de ellas comienza entonces a girar muy lentamente sobre ella misma, sosteniendo la mano de un compañero, de un solo lado, lo que tiene por efecto inducir un enrollamiento de todo el grupo en espiral. Un grupo compacto se forma y las personas cesan entonces de desplazarse para permanecer “enrollados”. La constitución de una espiral tiende a acentuar el efecto de trance inducido por este ejercicio. Convendrá pues hacer de manera que la persona que estará en el corazón de la espiral esté totalmente apta para abandonarse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción :
+El participante va al centro de la ronda y, en profunda conexión consigo mismo, comienza a cantar su nombre (lo hace varias veces), con gran emoción y tratando de escuchar la resonancia interior de la palabra que representa su nombre/identidad.
+Objetivo :
+Este es un ejercicio de refuerzo de la propia identidad que puede conducir al intasis (estado de conciencia intensificada de sí mismo y de estar vivo).
+Observación :
+Nota: este es un ejercicio específico del Proyecto Minotauro. Cuando es realizado fuera de ese contexto, el facilitador deberá reservar este ejercicio para circunstancias muy especiales (por ejemplo un aniversario, un cumpleaños) y crear una atmósfera ritual, para que la vivencia de cantar el propio nombre no se transforme en algo superficial o trivial.
+Proyección Existencial :
+Cantar el propio nombre es una vivencia de profunda conexión con uno misno: dar al nombre con el que otros nos llaman el eco del llamado que nos ofrecemos a nosotros mismos, y reconocerse en este llamado.
+Elemento Poético :
+El sonido de cada nombre es único cuando vibra en la voz del que lo lleva.
+Observación :
+Se realiza sin música.
+</t>
+  </si>
+  <si>
+    <t>Descripción :_x000D_
+_x000D_
+El grupo se toma de las manos en una ronda bien cerrada, uniendo sus hombros con los del compañero del lado. Un voluntario sale al centro y elige un compañero para cantar su nombre, colocándose frente a él. En una conexión profunda consigo mismo, con los ojos cerrados, el participante voluntario emite una melodía ajustada al nombre del compañero; cuando la melodía lo exige, se alargarán las vocales para que sea una perfecta integración entre esta última y el nombre de compañero. Una vez concluído el canto los dos compañeros se abrazan y se reintegran a la ronda, de manera que otro voluntario pueda elegir ir al centro para ofrecer el canto del nombre a otro compañero._x000D_
+_x000D_
+Este ejercicio pertenece a la Línea de la Afectividad._x000D_
+_x000D_
+Objetivo :_x000D_
+_x000D_
+Refuerzo de la identidad de la persona que canta a través de la expresión afectiva hacia un compañero. Además se refuerza la identidad de la persona que lo recibe a través de la vivencia de recibir el regalo afectivo del canto de su nombre._x000D_
+_x000D_
+Observación :_x000D_
+_x000D_
+Se realiza sin música._x000D_
+_x000D_
+_x000C__x000D_
+_x000D_
+_x000D_
+Note CIMEB :_x000D_
+_x000D_
+Este ejercicio es una verdadera ceremonia de confirmación afectiva. Puede ser propuesto dentro de una secuencia que tiene como objetivo celebrar a una persona en una ocasión especial (desafio, Minotauro, momento especial de la vida del grupo, etc)._x000D_
+_x000D_
+Este ejercicio puede también hacerse en ronda: una persona va al centro y canta (llama) el nombre de un compañero. El que es asi llamado viene al centro y se acerca al primero, desde donde llama el nombre de otro compañero, ayudado también por el primero. Asi, con iniciativa del ultimo en llegar y ayudado por todos los que estan en el centro, uno a uno el grupo entero es llamado al centro por su nombre. El facilitador permanece fuera para sostener con su presencia a los que seran llamados últimos._x000D_
+_x000D_
+Y también puede hacerse en ronda, donde un voluntario es invitado a ir al centro y cantar el nombre de un compañero. Todo el grupo se une cantando en coro la melodía. Se hace sin música._x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t>Este Ejercicio pertenece a la Línea de la Afectividad. Se realiza en pareja, preferentemente con ojos cerrados. Revela la capacidad de resonancia con el otro al prescindir de la palabra. Se trata de un diálogo sonoro, un diálogo de voces y no de palabras._x000D_
+_x000D_
+Se caracteriza por la búsqueda de una perfecta conexión sensible, de una resonancia del uno con el otro. El ejercicio induce una comunicación afectiva profunda. As dos personas transmiten recíprocamente estados de ánimo sutiles y emociones a través de la voz._x000D_
+Descripción :_x000D_
+_x000D_
+Uno frente al otro, separados por una distancia mediana, uno a la vez hacen una breve emisión vocal que puede constituir una pequeñísima frase melódica. A tal emisión de voz, el otro tiene que responder con total coherencia, no desde el ego, sino, al contrario, escuchando lo que el otro está diciendo con su voz. Se tiene que originar una respuesta armónica y coherente que se origina desde adentro, que puede ser constituida también por una breve frase melódica._x000D_
+_x000D_
+Simultáneamente, cada uno se mueve en dirección de la voz del otro con pasos lentos. Cuando los dos participantes están muy cerca, el ejercicio se concluye y pueden darse un abrazo._x000D_
+_x000D_
+Se realiza sin música._x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+_x000D_
+Antes se propone la composición de una poesía a través del ejercicio de la Línea de la Creatividad llamado:_x000D_
+_x000D_
+“La poesía eres tú”._x000D_
+_x000D_
+Una vez que la poesía está escrita, el alumno trata de poner melodía a las palabras, tomando solamente algunos versos que se reiteran y se modulan en relación con la extensión de la melodía (por ejemplo: se alargan algunas vocales para ajustar las palabras a la melodía)._x000D_
+_x000D_
+Se elige un tema y se hacen algunas variaciones sobre el mismo. Dichas variaciones se tienen que referir al tema y a la melodía inicial. Por ende, hay que evitar variaciones que se escapan del tema. Se realiza sin música._x000D_
+_x000D_
+Nota: Este ejercicio es más apropiado para la extensión de Biodanza “Laboratorio de Creatividad”._x000D_
+_x000D_
+Observación :_x000D_
+_x000D_
+Este ejercicio es sobre todo parte de profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>En este ejercicio se integran tres formas de expresión creativas: la poesía, el canto y la danza. El participante primero tiene que escribir una poesía usando el ejercicio de la Línea de la Creatividad llamado “El poema eres tú”._x000D_
+_x000D_
+Después, crea la melodía sobre la base de la poesía que creó (no es necesario usar toda la poesía, sino una frase llena de belleza y significado)._x000D_
+_x000D_
+En seguida, en una tercera fase, el participante danza mientras canta la poesía que escribió. Es necesario intentarlo varias veces hasta llegar a la perfecta integración de los tres componentes. Se realiza sin música._x000D_
+Observación :_x000D_
+_x000D_
+Este ejercicio es sobre todo parte profundizaciones vivenciales como el "Laboratorio de creatividad", "Proyecto Minotauro" y "Arbol de los deseos"._x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+_x000D_
+Los “Coros rítmicos” se realizan utilizando dos mantras diferentes: “Samba-Cananda-Camina-Bum-Ba” Y “Ase-Sita-Hum”. Este ejercicio es de la Línea de la Trascendencia._x000D_
+Descripción :_x000D_
+_x000D_
+Los participantes en círculo, tomados de las manos, cierran los ojos y pronuncian las sílabas de uno de los mantras, acompañándose con el ritmo marcado por los pies en el piso. Mientras los participantes repiten rítmicamente el mantra, el profesor se asegura que ninguno de los participantes se disperse en iniciativas personales, sino que todos canten al mismo tiempo estas palabras._x000D_
+_x000D_
+El ritmo se hace progresivo y tiene que adquirir una gran unidad sonora, una polifonía sonora, conservando hasta el final la misma matriz rítmica._x000D_
+_x000D_
+Sucesivamente, en una segunda etapa, los participantes pueden soltarse de las manos de la ronda y proseguir en forma individual, todos juntos, la danza de este ritmo producido por el grupo. El ritmo se apodera de la percepción de los participantes y, eventualmente, se pueden producir estados de trance rítmico liviano._x000D_
+_x000D_
+Se realiza sin música._x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La "Danza interior" se hace sin música, dando asi prioridad a la conexión profunda con uno mismo, a partir de movimientos cenestésicos inducidos por la escucha profunda de uno mismo._x000D_
+_x000D_
+Descripción :_x000D_
+_x000D_
+Se trata de una danza de gran intimidad con características muy personales, tanto en la forma como en la vivencia. Los movimientos son muy lentos y de escucha profunda de uno mismo. La percepción interna y la profunda conexión con la propia intimidad inducen, en la esfera del silencio, la percepción de la musicalidad y del sonido interno. Mediante la reducción de los movimientos voluntarios y los gestos expresivos intencionales, se acentúan los movimientos cenestésicos que hacen nacer una danza interior._x000D_
+_x000D_
+Cuando este ejercicio se propone en la naturaleza, la respuesta interna es mucho mayor, ya que se ve acentuada por la estimulación sensorial y sonora que viene del medioambiente._x000D_
+_x000D_
+En "Biodanza y Voz", del flujo respiratorio propio a cada uno (del ritmo o frecuencia respiratoria), del propio aliento vital, en la escucha silenciosa y sensible, uno puede experimentar la vivencia intensa y trascendente del "aliento de vida" en todos sus matices y posibilidades sonoras._x000D_
+_x000D_
+Objetivo :_x000D_
+_x000D_
+La "Danza interior" requiere un buen nivel de integración sensitivomotora e integración de la fluidez. Su objetivo principal es profundizar la auto-percepción, el movimiento de la intimidad con uno mismo y la conexión con los diferentes elementos sensoriales y sensibles de nuestra percepción._x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>El desarrollo de la "percepción sensible" es la primera condición para crear imágenes a través del dibujo._x000D_
+_x000D_
+Cuando queremos dibujar un rostro, un paisaje, un objeto real o imaginario, estamos solicitando por lo general lo que se llama el "canal ocular-motor", poniéndolo al servicio de representaciones pre-establecidas_x000D_
+_x000D_
+de esquemas almacenados en nuestra memoria como en una computadora: construimos y elaboramos partiendo de nuestro propio repertorio de formas aprendidas. El resultado es un diseño rígido y sin vida,sin alma, una especie de esquema simple y obvio. La complejidad de la imagen, la que que se refiere a la morfogénesis, está ausente._x000D_
+No hay ninguna conexión entre el grupo de signos y el significado intrínseco de la forma. Se trata de una disociación entre los aspectos semióticos y los aspectos semánticos. Carece de emoción. Carece de vida._x000D_
+_x000D_
+Si tomamos como punto de partida para la morfogénesis nuestra"percepción del objeto", abordándolo con sensibilidad en el trato con sus alusiones inmediatas, asi se trate de sombras o de formas unidas en el espacio, logramos descubrir el sentido de la imagen._x000D_
+_x000D_
+El artista, al igual que el explorador, se mueve un territorio a otro uniendo en la misma línea, del mismo trazo, las estructuras que emergen delante de sus ojos, revelando la forma en toda su complejidad._x000D_
+_x000D_
+Cuando se dibuja un esquema que tenemos en la memoria, el diseño es rígido. Si dibujamos sin mantener nuestra mirada fija en el papel sino tratando de capturar algo del sujeto, sus formas vivas, vibrantes y expresivas, nos revelan la esencia._x000D_
+_x000D_
+La técnica apropiada para hacer esto es la percepción sensible del objeto, es decir, una percepcion no formal. La mirada ligeramente desenfocada, la mirada que recorre lentamente los contornos, ya sea de un florero, un rostro, una planta, etc._x000D_
+_x000D_
+_x000C__x000D_
+_x000D_
+Descripción :_x000D_
+_x000D_
+La propuesta se realiza en dos etapas. El ejercicio se lleva a cabo en pares. Las personas se sientan frente a frente y uno tras otro dibujan como es su costumbre, sin instrucción específica del facilitador, el retrato de su compañero. A continuación, dejando a un lado sus diseños, se compenetran sensiblemente de la cara del otro (esta parte puede ser precedida por la Caricia del rostro en pares). En una hoja nueva, realizan el "retrato sensible" del compañero, tratando de no mirar el papel sino dejando que el trazo exprese lo esencial de su percepción._x000D_
+_x000D_
+Las personas entonces se ofrecen un momento de contemplación de sus respectivas obras. A continuación, todos los dibujos son llevados al centro, cada uno colocando su dibujo formal cerca de su diseño sensible, y el grupo forma una ronda que se mueve alrededor para sensibilizarse a través de la contemplación._x000D_
+Objetivo :_x000D_
+_x000D_
+Desbloquear el dibujo de los límites de la percepción formal para permitir una percepción sensible y esencial de los seres y las cosas. En la creatividad la percepción sensible es subjetiva y por lo tanto, es original y única._x000D_
+_x000D_
+Observación :_x000D_
+_x000D_
+Este mismo ejercicio puede realizarse dibujando un objeto._x000D_
+_x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+_x000D_
+Descripción :_x000D_
+_x000D_
+Dos personas se eligen mutuamente por afinidad. Se sientan uno frente al otro y entran cada uno en la contemplación del otro. Se abren el misterio del otro, sensibilizándose a la esencia, al estado de ánimo, a las emociones que expresa su rostro, a todo lo que emerge como esencial. Entonces, mientras se mantiene la proximidad, cada uno expresa en el lenguaje poético su vivencia a ver al otro. Tú eres el poema: tú eres el centro de mi percepción. Tú eres la razón de mi poema._x000D_
+_x000D_
+Objetivo :_x000D_
+_x000D_
+Desarrollar el lenguaje afectivo y poético y la capacidad de exaltar la presencia del otro._x000D_
+_x000D_
+Observación :_x000D_
+_x000D_
+Se realiza preferentemente sin música para no influenciar la inspiración de las personas con el contenido semántico emocional de ésta. Sin embargo, es preparado por una música y es también concluído con la misma música, la cual indica el marco inicial de conexión e intimidad y el marco final del tiempo del ritual._x000D_
+_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Descripción :_x000D_
+_x000D_
+La persona que va a realizar el movimiento se ubica en la misma posición que la descripta en el MS individual. La persona que acompaña se ubica adelante, (bastante cerca para comunicar protección, sin perturbar el movimiento) y coloca sus manos de un lado y del otro de la base de la cabeza (bajo las orejas, y ligeramente hacia atrás de la cara). Las manos tienen forma de cuna, tiernas, suaves y sin tensión. Los brazos despegados del torso y sin tensión. El contacto no es simbólico, es real aunque liviano. La persona acompaña sin guiar el movimiento del compañero. Conviene estar atento a no dirigir ni limitar el movimiento. Lo importante es invocar la vivencia de protección y benevolencia. Las dos personas tienen los ojos cerrados._x000D_
+_x000D_
+Cuando la música termina, la persona acompañante ofrece un abrazo contenedor con dulzura y profundidad. Luego, sin hablar, las dos personas proceden a cambiar para efectuar la reciprocidad de la situación._x000D_
+_x000D_
+Objetivo :_x000D_
+_x000D_
+El objetivo de disolución de las tensiones es el mismo que cuando realizado individualmente. Pero a dos, eso está reforzado por el abandono en confianza con el otro. Allí donde el MS individual estimulaba una forma liviana de trance autoinducido, el MS acompañado favorece un trance liviano inducido por la afectividad. Para que uno se abandone, el otro vigila en calidad de protector._x000D_
+Note CIMEB :_x000D_
+_x000D_
+En algunas ocasiónes excepcionales,en este ejercicio Rolando proponía al acompañante que se ubicara detrás._x000D_
+_x000D_</t>
+  </si>
+  <si>
+    <t>RONDA INICIO/INTEGRACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5896,6 +5250,14 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5923,9 +5285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6264,27 +5630,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6293,13 +5660,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,10 +5674,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
         <v>316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>317</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6321,10 +5688,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6335,10 +5702,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6349,13 +5716,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,13 +5730,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,10 +5744,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -6405,10 +5772,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C10" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -6419,13 +5786,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,13 +5800,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C12" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D12" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,13 +5814,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,13 +5828,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,13 +5842,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,10 +5856,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -6517,13 +5884,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
         <v>321</v>
-      </c>
-      <c r="C18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D18" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,13 +5898,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,13 +6248,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" t="s">
         <v>400</v>
       </c>
-      <c r="C44" t="s">
-        <v>401</v>
-      </c>
       <c r="D44" t="s">
-        <v>402</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,13 +6262,13 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>404</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,13 +6276,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6923,13 +6290,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
         <v>323</v>
-      </c>
-      <c r="C47" t="s">
-        <v>317</v>
-      </c>
-      <c r="D47" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6937,13 +6304,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
         <v>325</v>
-      </c>
-      <c r="C48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,13 +6318,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" t="s">
         <v>327</v>
-      </c>
-      <c r="C49" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,13 +6332,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" t="s">
         <v>329</v>
-      </c>
-      <c r="C50" t="s">
-        <v>317</v>
-      </c>
-      <c r="D50" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,13 +6346,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
         <v>331</v>
-      </c>
-      <c r="C51" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,13 +6360,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
         <v>333</v>
-      </c>
-      <c r="C52" t="s">
-        <v>317</v>
-      </c>
-      <c r="D52" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -7007,13 +6374,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" t="s">
         <v>335</v>
-      </c>
-      <c r="C53" t="s">
-        <v>317</v>
-      </c>
-      <c r="D53" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -7021,13 +6388,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" t="s">
         <v>337</v>
-      </c>
-      <c r="C54" t="s">
-        <v>317</v>
-      </c>
-      <c r="D54" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,13 +6402,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
         <v>339</v>
-      </c>
-      <c r="C55" t="s">
-        <v>317</v>
-      </c>
-      <c r="D55" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7049,13 +6416,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" t="s">
         <v>341</v>
-      </c>
-      <c r="C56" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -7063,13 +6430,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" t="s">
         <v>343</v>
-      </c>
-      <c r="C57" t="s">
-        <v>317</v>
-      </c>
-      <c r="D57" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,13 +6444,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" t="s">
         <v>345</v>
-      </c>
-      <c r="C58" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7091,13 +6458,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C59" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,13 +6472,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C60" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D60" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,13 +6486,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7133,13 +6500,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,13 +6514,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D63" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -7175,13 +6542,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,13 +6556,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>408</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,13 +6570,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>410</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -7217,13 +6584,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D68" t="s">
-        <v>412</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -7287,13 +6654,13 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,13 +6668,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C74" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D74" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -7315,10 +6682,10 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C75" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -7329,13 +6696,13 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C76" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D76" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -7343,13 +6710,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C77" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D77" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,13 +6724,13 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -7371,13 +6738,13 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C79" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D79" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -7385,13 +6752,13 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" t="s">
         <v>393</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>394</v>
-      </c>
-      <c r="D80" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -7413,10 +6780,10 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -7427,13 +6794,13 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
+        <v>347</v>
+      </c>
+      <c r="C83" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" t="s">
         <v>348</v>
-      </c>
-      <c r="C83" t="s">
-        <v>317</v>
-      </c>
-      <c r="D83" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,13 +6906,13 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" t="s">
         <v>374</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>375</v>
-      </c>
-      <c r="D91" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7553,13 +6920,13 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C92" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D92" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7567,13 +6934,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" t="s">
         <v>396</v>
-      </c>
-      <c r="C93" t="s">
-        <v>394</v>
-      </c>
-      <c r="D93" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7581,13 +6948,13 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C94" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7595,13 +6962,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" t="s">
         <v>384</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>385</v>
-      </c>
-      <c r="D95" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -7609,13 +6976,13 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C96" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D96" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7623,13 +6990,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
+        <v>386</v>
+      </c>
+      <c r="C97" t="s">
+        <v>384</v>
+      </c>
+      <c r="D97" t="s">
         <v>387</v>
-      </c>
-      <c r="C97" t="s">
-        <v>385</v>
-      </c>
-      <c r="D97" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -7637,13 +7004,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C98" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D98" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7651,13 +7018,13 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" t="s">
         <v>398</v>
-      </c>
-      <c r="C99" t="s">
-        <v>394</v>
-      </c>
-      <c r="D99" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,13 +7046,13 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C101" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,13 +7116,13 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C106" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D106" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7763,13 +7130,13 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
+        <v>360</v>
+      </c>
+      <c r="C107" t="s">
         <v>361</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>362</v>
-      </c>
-      <c r="D107" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7777,13 +7144,13 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C108" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" t="s">
         <v>350</v>
-      </c>
-      <c r="C108" t="s">
-        <v>317</v>
-      </c>
-      <c r="D108" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7791,13 +7158,13 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D109" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7805,13 +7172,13 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C110" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D110" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -7819,13 +7186,13 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D111" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7833,13 +7200,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D112" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,13 +7214,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C113" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -7861,13 +7228,13 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C114" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D114" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -7875,13 +7242,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C115" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D115" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,13 +7256,13 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C116" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D116" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7903,13 +7270,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C117" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D117" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -7917,13 +7284,13 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C118" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D118" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -7931,13 +7298,13 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C119" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,13 +7326,13 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,13 +7340,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C122" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -7987,13 +7354,13 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C123" t="s">
+        <v>553</v>
+      </c>
+      <c r="D123" t="s">
         <v>565</v>
-      </c>
-      <c r="D123" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -8001,13 +7368,13 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
+        <v>388</v>
+      </c>
+      <c r="C124" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" t="s">
         <v>389</v>
-      </c>
-      <c r="C124" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -8015,13 +7382,13 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" t="s">
         <v>391</v>
-      </c>
-      <c r="C125" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -8057,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -8071,13 +7438,13 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C129" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D129" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -8099,13 +7466,13 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D131" t="s">
-        <v>414</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,13 +7480,13 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C132" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D132" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -8141,13 +7508,13 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C134" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -8225,13 +7592,13 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C140" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D140" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -8239,13 +7606,13 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" t="s">
+        <v>374</v>
+      </c>
+      <c r="D141" t="s">
         <v>377</v>
-      </c>
-      <c r="C141" t="s">
-        <v>375</v>
-      </c>
-      <c r="D141" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -8253,13 +7620,13 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
+        <v>379</v>
+      </c>
+      <c r="C142" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" t="s">
         <v>380</v>
-      </c>
-      <c r="C142" t="s">
-        <v>375</v>
-      </c>
-      <c r="D142" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -8267,10 +7634,10 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -8281,13 +7648,13 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" t="s">
+        <v>374</v>
+      </c>
+      <c r="D144" t="s">
         <v>382</v>
-      </c>
-      <c r="C144" t="s">
-        <v>375</v>
-      </c>
-      <c r="D144" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -8309,13 +7676,13 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" t="s">
         <v>353</v>
-      </c>
-      <c r="C146" t="s">
-        <v>317</v>
-      </c>
-      <c r="D146" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -8323,13 +7690,13 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C147" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D147" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -8337,13 +7704,13 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D148" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,13 +7718,13 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C149" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D149" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -8393,13 +7760,13 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C152" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D152" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -8407,13 +7774,13 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C153" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D153" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -8421,13 +7788,13 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C154" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D154" t="s">
-        <v>416</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,13 +7802,13 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D155" t="s">
-        <v>418</v>
+        <v>612</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -8449,13 +7816,13 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C156" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D156" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -8463,13 +7830,13 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C157" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D157" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -8477,13 +7844,13 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D158" t="s">
-        <v>420</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -8519,13 +7886,13 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C161" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D161" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -8533,13 +7900,13 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
+        <v>281</v>
+      </c>
+      <c r="C162" t="s">
         <v>282</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>283</v>
-      </c>
-      <c r="D162" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,13 +7914,13 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C163" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D163" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,10 +7928,10 @@
         <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -8575,13 +7942,13 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" t="s">
+        <v>282</v>
+      </c>
+      <c r="D165" t="s">
         <v>286</v>
-      </c>
-      <c r="C165" t="s">
-        <v>283</v>
-      </c>
-      <c r="D165" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,13 +7956,13 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
+        <v>287</v>
+      </c>
+      <c r="C166" t="s">
+        <v>282</v>
+      </c>
+      <c r="D166" t="s">
         <v>288</v>
-      </c>
-      <c r="C166" t="s">
-        <v>283</v>
-      </c>
-      <c r="D166" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -8603,10 +7970,10 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -8617,13 +7984,13 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
+        <v>290</v>
+      </c>
+      <c r="C168" t="s">
+        <v>282</v>
+      </c>
+      <c r="D168" t="s">
         <v>291</v>
-      </c>
-      <c r="C168" t="s">
-        <v>283</v>
-      </c>
-      <c r="D168" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -8631,10 +7998,10 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -8645,10 +8012,10 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C170" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -8659,10 +8026,10 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -8673,10 +8040,10 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C172" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -8687,10 +8054,10 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -8701,10 +8068,10 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C174" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -8715,10 +8082,10 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C175" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -8729,10 +8096,10 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -8743,10 +8110,10 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -8757,13 +8124,13 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" t="s">
+        <v>282</v>
+      </c>
+      <c r="D178" t="s">
         <v>302</v>
-      </c>
-      <c r="C178" t="s">
-        <v>283</v>
-      </c>
-      <c r="D178" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -8771,10 +8138,10 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -8785,10 +8152,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -8799,13 +8166,13 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
+        <v>305</v>
+      </c>
+      <c r="C181" t="s">
+        <v>282</v>
+      </c>
+      <c r="D181" t="s">
         <v>306</v>
-      </c>
-      <c r="C181" t="s">
-        <v>283</v>
-      </c>
-      <c r="D181" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,10 +8180,10 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C182" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -8827,10 +8194,10 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -8841,13 +8208,13 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" t="s">
+        <v>282</v>
+      </c>
+      <c r="D184" t="s">
         <v>310</v>
-      </c>
-      <c r="C184" t="s">
-        <v>283</v>
-      </c>
-      <c r="D184" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -8855,10 +8222,10 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -8995,13 +8362,13 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C195" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D195" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -9009,13 +8376,13 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C196" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D196" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -9023,13 +8390,13 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C197" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -9037,13 +8404,13 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C198" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D198" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -9051,13 +8418,13 @@
         <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C199" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -9065,13 +8432,13 @@
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C200" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D200" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -9233,10 +8600,10 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C212" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -9247,10 +8614,10 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C213" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -9261,10 +8628,10 @@
         <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C214" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -9275,13 +8642,13 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
+        <v>363</v>
+      </c>
+      <c r="C215" t="s">
+        <v>361</v>
+      </c>
+      <c r="D215" t="s">
         <v>364</v>
-      </c>
-      <c r="C215" t="s">
-        <v>362</v>
-      </c>
-      <c r="D215" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -9289,13 +8656,13 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" t="s">
+        <v>361</v>
+      </c>
+      <c r="D216" t="s">
         <v>366</v>
-      </c>
-      <c r="C216" t="s">
-        <v>362</v>
-      </c>
-      <c r="D216" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,13 +8670,13 @@
         <v>12</v>
       </c>
       <c r="B217" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" t="s">
+        <v>361</v>
+      </c>
+      <c r="D217" t="s">
         <v>368</v>
-      </c>
-      <c r="C217" t="s">
-        <v>362</v>
-      </c>
-      <c r="D217" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,10 +8684,10 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C218" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -9331,13 +8698,13 @@
         <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C219" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D219" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -9345,13 +8712,13 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C220" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D220" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -9359,10 +8726,10 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
+        <v>273</v>
+      </c>
+      <c r="C221" t="s">
         <v>274</v>
-      </c>
-      <c r="C221" t="s">
-        <v>275</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -9373,10 +8740,10 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -9387,13 +8754,13 @@
         <v>12</v>
       </c>
       <c r="B223" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" t="s">
+        <v>274</v>
+      </c>
+      <c r="D223" t="s">
         <v>277</v>
-      </c>
-      <c r="C223" t="s">
-        <v>275</v>
-      </c>
-      <c r="D223" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -9401,13 +8768,13 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C224" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D224" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -9415,10 +8782,10 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C225" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -9429,13 +8796,13 @@
         <v>12</v>
       </c>
       <c r="B226" t="s">
+        <v>279</v>
+      </c>
+      <c r="C226" t="s">
+        <v>274</v>
+      </c>
+      <c r="D226" t="s">
         <v>280</v>
-      </c>
-      <c r="C226" t="s">
-        <v>275</v>
-      </c>
-      <c r="D226" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -9457,13 +8824,13 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D228" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -9681,10 +9048,10 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C244" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -9695,13 +9062,13 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C245" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D245" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -9709,13 +9076,13 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C246" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D246" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -9779,13 +9146,13 @@
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C251" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D251" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -9863,10 +9230,10 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
@@ -9900,7 +9267,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -9910,8 +9277,8 @@
       <c r="C260" t="s">
         <v>259</v>
       </c>
-      <c r="D260" t="s">
-        <v>264</v>
+      <c r="D260" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -9919,13 +9286,13 @@
         <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C261" t="s">
         <v>259</v>
       </c>
       <c r="D261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -9933,13 +9300,13 @@
         <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C262" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D262" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -9947,13 +9314,13 @@
         <v>12</v>
       </c>
       <c r="B263" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C263" t="s">
         <v>259</v>
       </c>
       <c r="D263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -9961,13 +9328,13 @@
         <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
         <v>259</v>
       </c>
       <c r="D264" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -9975,13 +9342,13 @@
         <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C265" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D265" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -9989,13 +9356,13 @@
         <v>12</v>
       </c>
       <c r="B266" t="s">
+        <v>369</v>
+      </c>
+      <c r="C266" t="s">
+        <v>361</v>
+      </c>
+      <c r="D266" t="s">
         <v>370</v>
-      </c>
-      <c r="C266" t="s">
-        <v>362</v>
-      </c>
-      <c r="D266" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -10003,10 +9370,10 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C267" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
@@ -10017,10 +9384,10 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C268" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
@@ -10031,10 +9398,10 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C269" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -10045,13 +9412,13 @@
         <v>12</v>
       </c>
       <c r="B270" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C270" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D270" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -10059,13 +9426,13 @@
         <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C271" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D271" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -10073,13 +9440,13 @@
         <v>12</v>
       </c>
       <c r="B272" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C272" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D272" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -10087,13 +9454,13 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C273" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D273" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -10101,13 +9468,13 @@
         <v>12</v>
       </c>
       <c r="B274" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C274" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D274" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -10115,13 +9482,13 @@
         <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C275" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D275" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -10129,13 +9496,13 @@
         <v>12</v>
       </c>
       <c r="B276" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C276" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D276" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -10143,13 +9510,13 @@
         <v>12</v>
       </c>
       <c r="B277" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C277" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D277" t="s">
-        <v>422</v>
+        <v>609</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -10157,13 +9524,13 @@
         <v>12</v>
       </c>
       <c r="B278" t="s">
+        <v>356</v>
+      </c>
+      <c r="C278" t="s">
+        <v>316</v>
+      </c>
+      <c r="D278" t="s">
         <v>357</v>
-      </c>
-      <c r="C278" t="s">
-        <v>317</v>
-      </c>
-      <c r="D278" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -10171,13 +9538,13 @@
         <v>12</v>
       </c>
       <c r="B279" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C279" t="s">
+        <v>461</v>
+      </c>
+      <c r="D279" t="s">
         <v>473</v>
-      </c>
-      <c r="D279" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -10199,13 +9566,13 @@
         <v>12</v>
       </c>
       <c r="B281" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D281" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -10213,13 +9580,13 @@
         <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C282" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D282" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -10227,13 +9594,13 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
+        <v>358</v>
+      </c>
+      <c r="C283" t="s">
+        <v>316</v>
+      </c>
+      <c r="D283" t="s">
         <v>359</v>
-      </c>
-      <c r="C283" t="s">
-        <v>317</v>
-      </c>
-      <c r="D283" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -10241,13 +9608,13 @@
         <v>12</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C284" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D284" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -10283,13 +9650,13 @@
         <v>12</v>
       </c>
       <c r="B287" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -10465,13 +9832,13 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C300" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D300" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -11025,7 +10392,7 @@
         <v>4</v>
       </c>
       <c r="B340" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C340" t="s">
         <v>259</v>
@@ -11039,7 +10406,7 @@
         <v>4</v>
       </c>
       <c r="B341" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C341" t="s">
         <v>259</v>
@@ -11053,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="B342" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C342" t="s">
         <v>259</v>
@@ -11095,13 +10462,13 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C345" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D345" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -11109,13 +10476,13 @@
         <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C346" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D346" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -11123,10 +10490,10 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C347" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D347" t="s">
         <v>7</v>
@@ -11137,10 +10504,10 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C348" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
@@ -11151,13 +10518,13 @@
         <v>12</v>
       </c>
       <c r="B349" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C349" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D349" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -11165,13 +10532,13 @@
         <v>12</v>
       </c>
       <c r="B350" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C350" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D350" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -11179,13 +10546,13 @@
         <v>12</v>
       </c>
       <c r="B351" t="s">
+        <v>371</v>
+      </c>
+      <c r="C351" t="s">
+        <v>361</v>
+      </c>
+      <c r="D351" t="s">
         <v>372</v>
-      </c>
-      <c r="C351" t="s">
-        <v>362</v>
-      </c>
-      <c r="D351" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -11193,13 +10560,13 @@
         <v>12</v>
       </c>
       <c r="B352" t="s">
+        <v>313</v>
+      </c>
+      <c r="C352" t="s">
+        <v>282</v>
+      </c>
+      <c r="D352" t="s">
         <v>314</v>
-      </c>
-      <c r="C352" t="s">
-        <v>283</v>
-      </c>
-      <c r="D352" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -11221,13 +10588,13 @@
         <v>12</v>
       </c>
       <c r="B354" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C354" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D354" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -11245,6 +10612,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D355"/>
   <sortState ref="A2:D973">
     <sortCondition ref="B2:B973"/>
   </sortState>
